--- a/Master/ESP32_Master/ESP32_Master_V0_BOM.xlsx
+++ b/Master/ESP32_Master/ESP32_Master_V0_BOM.xlsx
@@ -876,7 +876,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,10 +885,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1228,12 +1235,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1348,40 +1370,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1390,37 +1409,40 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1432,7 +1454,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1444,7 +1466,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1456,7 +1478,7 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1468,7 +1490,7 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1480,7 +1502,7 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1493,7 +1515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1503,13 +1525,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1854,7 +1882,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1871,7 +1899,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:9">
+    <row r="1" ht="33" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1885,1307 +1913,1307 @@
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="57" spans="1:9">
-      <c r="A3" s="1">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="85.5" spans="1:9">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" ht="57" spans="1:9">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" ht="57" spans="1:9">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" ht="57" spans="1:9">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" ht="57" spans="1:9">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" ht="57" spans="1:9">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" ht="57" spans="1:9">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" ht="85.5" spans="1:9">
-      <c r="A11" s="1">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="5">
         <v>2</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" ht="42.75" spans="1:9">
-      <c r="A12" s="1">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="5">
         <v>2</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="5" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" ht="57" spans="1:9">
-      <c r="A13" s="1">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="5">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" ht="42.75" spans="1:9">
-      <c r="A14" s="1">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="5">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" ht="57" spans="1:9">
-      <c r="A15" s="1">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" ht="57" spans="1:9">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" ht="71.25" spans="1:9">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" ht="71.25" spans="1:9">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" ht="85.5" spans="1:9">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5">
         <v>4</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" ht="57" spans="1:9">
-      <c r="A16" s="1">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="C19" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" ht="85.5" spans="1:9">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" ht="85.5" spans="1:9">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" ht="57" spans="1:9">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5">
+        <v>8</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" ht="71.25" spans="1:9">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" ht="71.25" spans="1:9">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5">
+        <v>4</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" ht="71.25" spans="1:9">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" ht="71.25" spans="1:9">
-      <c r="A17" s="1">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="C25" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" ht="71.25" spans="1:9">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" ht="71.25" spans="1:9">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" ht="71.25" spans="1:9">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" ht="71.25" spans="1:9">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5">
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" ht="71.25" spans="1:9">
-      <c r="A18" s="1">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="C29" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" ht="57" spans="1:9">
+      <c r="A30" s="5">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" ht="71.25" spans="1:9">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" ht="71.25" spans="1:9">
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" ht="71.25" spans="1:9">
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5">
         <v>2</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="C33" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" ht="85.5" spans="1:9">
-      <c r="A19" s="1">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" ht="85.5" spans="1:9">
-      <c r="A20" s="1">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="F33" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" ht="71.25" spans="1:9">
+      <c r="A34" s="5">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5">
         <v>1</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" ht="85.5" spans="1:9">
-      <c r="A21" s="1">
-        <v>24</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="C34" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" ht="71.25" spans="1:9">
+      <c r="A35" s="5">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5">
         <v>1</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" ht="57" spans="1:9">
-      <c r="A22" s="1">
-        <v>25</v>
-      </c>
-      <c r="B22" s="1">
-        <v>8</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="C35" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" ht="71.25" spans="1:9">
-      <c r="A23" s="1">
-        <v>26</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="F35" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" ht="85.5" spans="1:9">
+      <c r="A36" s="5">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5">
         <v>1</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" ht="71.25" spans="1:9">
-      <c r="A24" s="1">
-        <v>27</v>
-      </c>
-      <c r="B24" s="1">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" ht="71.25" spans="1:9">
-      <c r="A25" s="1">
-        <v>28</v>
-      </c>
-      <c r="B25" s="1">
+      <c r="C36" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I36" s="5">
+        <v>760390015</v>
+      </c>
+    </row>
+    <row r="37" ht="42.75" spans="1:9">
+      <c r="A37" s="5">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" ht="57" spans="1:9">
+      <c r="A38" s="5">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="39" ht="114" spans="1:9">
+      <c r="A39" s="5">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5">
         <v>2</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" ht="71.25" spans="1:9">
-      <c r="A26" s="1">
-        <v>29</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" ht="71.25" spans="1:9">
-      <c r="A27" s="1">
-        <v>30</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" ht="71.25" spans="1:9">
-      <c r="A28" s="1">
-        <v>31</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" ht="71.25" spans="1:9">
-      <c r="A29" s="1">
-        <v>32</v>
-      </c>
-      <c r="B29" s="1">
+      <c r="C39" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="40" ht="114" spans="1:9">
+      <c r="A40" s="5">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5">
         <v>1</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" ht="57" spans="1:9">
-      <c r="A30" s="1">
-        <v>33</v>
-      </c>
-      <c r="B30" s="1">
+      <c r="C40" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" ht="128.25" spans="1:9">
+      <c r="A41" s="5">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5">
         <v>1</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="31" ht="71.25" spans="1:9">
-      <c r="A31" s="1">
-        <v>34</v>
-      </c>
-      <c r="B31" s="1">
+      <c r="C41" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" ht="57" spans="1:9">
+      <c r="A42" s="5">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5">
         <v>1</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" ht="71.25" spans="1:9">
-      <c r="A32" s="1">
-        <v>35</v>
-      </c>
-      <c r="B32" s="1">
+      <c r="C42" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" ht="71.25" spans="1:9">
+      <c r="A43" s="5">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5">
         <v>1</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" ht="71.25" spans="1:9">
-      <c r="A33" s="1">
-        <v>36</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" ht="71.25" spans="1:9">
-      <c r="A34" s="1">
-        <v>37</v>
-      </c>
-      <c r="B34" s="1">
+      <c r="C43" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" ht="85.5" spans="1:9">
+      <c r="A44" s="5">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5">
         <v>1</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="35" ht="71.25" spans="1:9">
-      <c r="A35" s="1">
-        <v>38</v>
-      </c>
-      <c r="B35" s="1">
+      <c r="C44" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="45" ht="85.5" spans="1:9">
+      <c r="A45" s="5">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5">
         <v>1</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="36" ht="85.5" spans="1:9">
-      <c r="A36" s="1">
-        <v>41</v>
-      </c>
-      <c r="B36" s="1">
+      <c r="C45" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" ht="71.25" spans="1:9">
+      <c r="A46" s="5">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5">
         <v>1</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I36" s="1">
-        <v>760390015</v>
-      </c>
-    </row>
-    <row r="37" ht="42.75" spans="1:9">
-      <c r="A37" s="1">
-        <v>42</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" ht="57" spans="1:9">
-      <c r="A38" s="1">
-        <v>43</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39" ht="114" spans="1:9">
-      <c r="A39" s="1">
-        <v>45</v>
-      </c>
-      <c r="B39" s="1">
-        <v>2</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="40" ht="114" spans="1:9">
-      <c r="A40" s="1">
-        <v>46</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="41" ht="128.25" spans="1:9">
-      <c r="A41" s="1">
-        <v>47</v>
-      </c>
-      <c r="B41" s="1">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="42" ht="57" spans="1:9">
-      <c r="A42" s="1">
-        <v>48</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="43" ht="71.25" spans="1:9">
-      <c r="A43" s="1">
-        <v>49</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="44" ht="85.5" spans="1:9">
-      <c r="A44" s="1">
-        <v>50</v>
-      </c>
-      <c r="B44" s="1">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" ht="85.5" spans="1:9">
-      <c r="A45" s="1">
-        <v>51</v>
-      </c>
-      <c r="B45" s="1">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="46" ht="71.25" spans="1:9">
-      <c r="A46" s="1">
-        <v>52</v>
-      </c>
-      <c r="B46" s="1">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" s="5" t="s">
         <v>274</v>
       </c>
     </row>

--- a/Master/ESP32_Master/ESP32_Master_V0_BOM.xlsx
+++ b/Master/ESP32_Master/ESP32_Master_V0_BOM.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="280">
   <si>
     <t>ESP32_Master_V0_BOM</t>
   </si>
@@ -179,16 +179,16 @@
     <t>1uF/25V</t>
   </si>
   <si>
-    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/4562/0603B105K250XD.pdf</t>
-  </si>
-  <si>
-    <t>1uF ±10% 25V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/en/products/detail/nextgen-components/0603B105K250XD/14670931</t>
-  </si>
-  <si>
-    <t>0603B105K250XD</t>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/3644/CL10B105KA8NNNC_spec.pdf</t>
+  </si>
+  <si>
+    <t>1 µF ±10% 25V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL10B105KA8NNNC/3886842</t>
+  </si>
+  <si>
+    <t>CL10B105KA8NNNC</t>
   </si>
   <si>
     <t>C26</t>
@@ -236,16 +236,16 @@
     <t>LED_SMD:LED_0603_1608Metric</t>
   </si>
   <si>
-    <t>https://optoelectronics.liteon.com/upload/download/DS-22-99-0151/LTST-C190KRKT.pdf</t>
-  </si>
-  <si>
-    <t>Red 631nm LED Indication - Discrete 2V 0603 (1608 Metric)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/en/products/detail/liteon/LTST-C190KRKT/386817</t>
-  </si>
-  <si>
-    <t>LTST-C190KRKT</t>
+    <t>https://docs.broadcom.com/doc/AV02-0112EN</t>
+  </si>
+  <si>
+    <t>Red 626nm LED Indication - Discrete 1.9V 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/broadcom-limited/HSMC-C191/2403196</t>
+  </si>
+  <si>
+    <t>HSMC-C191</t>
   </si>
   <si>
     <t>D2</t>
@@ -521,13 +521,16 @@
     <t>33K</t>
   </si>
   <si>
-    <t>33 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Moisture Resistant Thick Film</t>
-  </si>
-  <si>
-    <t>https://www.digikey.jp/en/products/detail/yageo/RC0603FR-0733KL/727159?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7OugNIAyIAugL5A</t>
-  </si>
-  <si>
-    <t>RC0603FR-0733KL</t>
+    <t>https://www.yageo.com/upload/media/product/productsearch/datasheet/rchip/PYu-AC_51_RoHS_L_10.pdf</t>
+  </si>
+  <si>
+    <t>33 kOhms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200, Moisture Resistant Thick Film</t>
+  </si>
+  <si>
+    <t>https://www.digikey.jp/en/products/detail/yageo/AC0603FR-0733KL/6006447</t>
+  </si>
+  <si>
+    <t>AC0603FR-0733KL</t>
   </si>
   <si>
     <t>R35, R36</t>
@@ -876,10 +879,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -900,7 +910,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -915,16 +933,17 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1041,12 +1060,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1370,31 +1395,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1403,49 +1416,58 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1454,10 +1476,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1466,10 +1488,10 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1478,10 +1500,10 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1490,10 +1512,10 @@
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1502,10 +1524,10 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1514,10 +1536,16 @@
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1525,19 +1553,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1881,1340 +1924,1340 @@
   <sheetPr/>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="7.7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7" style="2" customWidth="1"/>
-    <col min="6" max="6" width="34.6" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.7" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.7" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="7.7" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.9" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.7" style="3" customWidth="1"/>
+    <col min="6" max="6" width="34.6" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22.7" style="3" customWidth="1"/>
+    <col min="8" max="8" width="29.7" style="3" customWidth="1"/>
+    <col min="9" max="9" width="23" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="57" spans="1:9">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="85.5" spans="1:9">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>17</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" ht="57" spans="1:9">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" ht="57" spans="1:9">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" ht="57" spans="1:9">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" ht="57" spans="1:9">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" ht="57" spans="1:9">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="9">
         <v>4</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" ht="57" spans="1:9">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" ht="85.5" spans="1:9">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="6">
         <v>2</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" ht="42.75" spans="1:9">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="9">
         <v>2</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" ht="57" spans="1:9">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="14" ht="42.75" spans="1:9">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="6">
         <v>2</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15" ht="57" spans="1:9">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="6">
         <v>4</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="16" ht="57" spans="1:9">
-      <c r="A16" s="5">
+    <row r="16" s="1" customFormat="1" ht="57" spans="1:9">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="10">
         <v>2</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="12" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="17" ht="71.25" spans="1:9">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>1</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="18" ht="71.25" spans="1:9">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="6">
         <v>2</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="6" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="19" ht="85.5" spans="1:9">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="6">
         <v>4</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="6" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="20" ht="85.5" spans="1:9">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="6">
         <v>1</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="21" ht="85.5" spans="1:9">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="6">
         <v>1</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="22" ht="57" spans="1:9">
-      <c r="A22" s="5">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <v>8</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="23" ht="71.25" spans="1:9">
-      <c r="A23" s="5">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="6">
         <v>1</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="24" ht="71.25" spans="1:9">
-      <c r="A24" s="5">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="6">
         <v>4</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" s="6" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="25" ht="71.25" spans="1:9">
-      <c r="A25" s="5">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="6">
         <v>2</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="26" ht="71.25" spans="1:9">
-      <c r="A26" s="5">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="6">
         <v>2</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="27" ht="71.25" spans="1:9">
-      <c r="A27" s="5">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="9">
         <v>2</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" ht="71.25" spans="1:9">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" ht="71.25" spans="1:9">
+      <c r="A29" s="6">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" ht="71.25" spans="1:9">
-      <c r="A28" s="5">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5">
+      <c r="G29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" ht="57" spans="1:9">
+      <c r="A30" s="6">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" ht="71.25" spans="1:9">
+      <c r="A31" s="6">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" ht="71.25" spans="1:9">
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" ht="71.25" spans="1:9">
+      <c r="A33" s="6">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6">
         <v>2</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="C33" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" ht="71.25" spans="1:9">
-      <c r="A29" s="5">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5">
+      <c r="F33" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" ht="71.25" spans="1:9">
+      <c r="A34" s="6">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6">
         <v>1</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="C34" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F34" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" ht="71.25" spans="1:9">
+      <c r="A35" s="6">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" ht="57" spans="1:9">
-      <c r="A30" s="5">
-        <v>28</v>
-      </c>
-      <c r="B30" s="5">
+      <c r="G35" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" ht="85.5" spans="1:9">
+      <c r="A36" s="6">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6">
         <v>1</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="31" ht="71.25" spans="1:9">
-      <c r="A31" s="5">
-        <v>29</v>
-      </c>
-      <c r="B31" s="5">
+      <c r="C36" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="I36" s="6">
+        <v>760390015</v>
+      </c>
+    </row>
+    <row r="37" ht="42.75" spans="1:9">
+      <c r="A37" s="6">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6">
         <v>1</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="32" ht="71.25" spans="1:9">
-      <c r="A32" s="5">
-        <v>30</v>
-      </c>
-      <c r="B32" s="5">
+      <c r="C37" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" ht="57" spans="1:9">
+      <c r="A38" s="6">
+        <v>36</v>
+      </c>
+      <c r="B38" s="6">
         <v>1</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" ht="71.25" spans="1:9">
-      <c r="A33" s="5">
-        <v>31</v>
-      </c>
-      <c r="B33" s="5">
+      <c r="C38" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" ht="114" spans="1:9">
+      <c r="A39" s="6">
+        <v>37</v>
+      </c>
+      <c r="B39" s="6">
         <v>2</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="34" ht="71.25" spans="1:9">
-      <c r="A34" s="5">
-        <v>32</v>
-      </c>
-      <c r="B34" s="5">
+      <c r="C39" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40" ht="114" spans="1:9">
+      <c r="A40" s="6">
+        <v>38</v>
+      </c>
+      <c r="B40" s="6">
         <v>1</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="35" ht="71.25" spans="1:9">
-      <c r="A35" s="5">
-        <v>33</v>
-      </c>
-      <c r="B35" s="5">
+      <c r="C40" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" ht="128.25" spans="1:9">
+      <c r="A41" s="6">
+        <v>39</v>
+      </c>
+      <c r="B41" s="6">
         <v>1</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="36" ht="85.5" spans="1:9">
-      <c r="A36" s="5">
-        <v>34</v>
-      </c>
-      <c r="B36" s="5">
+      <c r="C41" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="42" ht="57" spans="1:9">
+      <c r="A42" s="6">
+        <v>40</v>
+      </c>
+      <c r="B42" s="6">
         <v>1</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="I36" s="5">
-        <v>760390015</v>
-      </c>
-    </row>
-    <row r="37" ht="42.75" spans="1:9">
-      <c r="A37" s="5">
-        <v>35</v>
-      </c>
-      <c r="B37" s="5">
+      <c r="C42" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" ht="71.25" spans="1:9">
+      <c r="A43" s="6">
+        <v>41</v>
+      </c>
+      <c r="B43" s="6">
         <v>1</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" ht="57" spans="1:9">
-      <c r="A38" s="5">
-        <v>36</v>
-      </c>
-      <c r="B38" s="5">
+      <c r="C43" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" ht="85.5" spans="1:9">
+      <c r="A44" s="6">
+        <v>42</v>
+      </c>
+      <c r="B44" s="6">
         <v>1</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39" ht="114" spans="1:9">
-      <c r="A39" s="5">
-        <v>37</v>
-      </c>
-      <c r="B39" s="5">
-        <v>2</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="40" ht="114" spans="1:9">
-      <c r="A40" s="5">
-        <v>38</v>
-      </c>
-      <c r="B40" s="5">
+      <c r="C44" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" ht="85.5" spans="1:9">
+      <c r="A45" s="6">
+        <v>43</v>
+      </c>
+      <c r="B45" s="6">
         <v>1</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="41" ht="128.25" spans="1:9">
-      <c r="A41" s="5">
-        <v>39</v>
-      </c>
-      <c r="B41" s="5">
+      <c r="C45" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" ht="71.25" spans="1:9">
+      <c r="A46" s="6">
+        <v>44</v>
+      </c>
+      <c r="B46" s="6">
         <v>1</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="42" ht="57" spans="1:9">
-      <c r="A42" s="5">
-        <v>40</v>
-      </c>
-      <c r="B42" s="5">
-        <v>1</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="43" ht="71.25" spans="1:9">
-      <c r="A43" s="5">
-        <v>41</v>
-      </c>
-      <c r="B43" s="5">
-        <v>1</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="44" ht="85.5" spans="1:9">
-      <c r="A44" s="5">
-        <v>42</v>
-      </c>
-      <c r="B44" s="5">
-        <v>1</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" ht="85.5" spans="1:9">
-      <c r="A45" s="5">
-        <v>43</v>
-      </c>
-      <c r="B45" s="5">
-        <v>1</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="46" ht="71.25" spans="1:9">
-      <c r="A46" s="5">
-        <v>44</v>
-      </c>
-      <c r="B46" s="5">
-        <v>1</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="C46" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="E46" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="F46" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="I46" s="5" t="s">
-        <v>274</v>
+      <c r="H46" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3224,18 +3267,45 @@
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1" display="https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL10B104KC8NNNC/5961291?s=N4IgTCBcDaIMIBkCMAGAQqgLAaTgDgDki4QBdAXyA"/>
     <hyperlink ref="H3" r:id="rId2" display="https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL21A106KOQNNNE/3886754"/>
-    <hyperlink ref="H29" r:id="rId3" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-07100KL/726698?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIxJIDSAMiALoC%2BQA"/>
-    <hyperlink ref="H28" r:id="rId4" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-074K7L/726785?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7ACwDS%2BAMiALoC%2BQA"/>
-    <hyperlink ref="H27" r:id="rId5" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-0733KL/727159?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7OugNIAyIAugL5A"/>
-    <hyperlink ref="H26" r:id="rId6" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-073K3L/727126?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7OgNboAyIAugL5A"/>
-    <hyperlink ref="H25" r:id="rId7" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-075K6L/726799?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AKwDSKAMiALoC%2BQA"/>
-    <hyperlink ref="H23" r:id="rId8" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-0710RL/726699?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIxJwAyIAugL5A"/>
-    <hyperlink ref="H5" r:id="rId9" display="https://www.digikey.jp/en/products/detail/murata-electronics/GRM188R61E225KA12D/4905349"/>
-    <hyperlink ref="H6" r:id="rId10" display="https://www.digikey.jp/en/products/detail/murata-electronics/GRM188R72A331KA01D/587128"/>
-    <hyperlink ref="H7" r:id="rId11" display="https://www.digikey.jp/en/products/detail/kemet/C0603C222K4RECAUTO/8646528"/>
-    <hyperlink ref="H8" r:id="rId12" display="https://www.digikey.jp/en/products/detail/murata-electronics/GCM1885C1H221JA16D/1765211"/>
-    <hyperlink ref="H9" r:id="rId13" display="https://www.digikey.jp/en/products/detail/nextgen-components/0603B105K250XD/14670931"/>
-    <hyperlink ref="H10" r:id="rId14" display="https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL10A475KO8NNNC/3887442"/>
+    <hyperlink ref="H29" r:id="rId3" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-07100KL/726698?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIxJIDSAMiALoC%2BQA" tooltip="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-07100KL/726698?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIxJIDSAMiALoC%2BQA"/>
+    <hyperlink ref="H28" r:id="rId4" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-074K7L/726785?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7ACwDS%2BAMiALoC%2BQA" tooltip="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-074K7L/726785?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7ACwDS%2BAMiALoC%2BQA"/>
+    <hyperlink ref="H26" r:id="rId5" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-073K3L/727126?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7OgNboAyIAugL5A" tooltip="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-073K3L/727126?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7OgNboAyIAugL5A"/>
+    <hyperlink ref="H25" r:id="rId6" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-075K6L/726799?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AKwDSKAMiALoC%2BQA" tooltip="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-075K6L/726799?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AKwDSKAMiALoC%2BQA"/>
+    <hyperlink ref="H23" r:id="rId7" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-0710RL/726699?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIxJwAyIAugL5A"/>
+    <hyperlink ref="H5" r:id="rId8" display="https://www.digikey.jp/en/products/detail/murata-electronics/GRM188R61E225KA12D/4905349"/>
+    <hyperlink ref="H6" r:id="rId9" display="https://www.digikey.jp/en/products/detail/murata-electronics/GRM188R72A331KA01D/587128"/>
+    <hyperlink ref="H7" r:id="rId10" display="https://www.digikey.jp/en/products/detail/kemet/C0603C222K4RECAUTO/8646528"/>
+    <hyperlink ref="H8" r:id="rId11" display="https://www.digikey.jp/en/products/detail/murata-electronics/GCM1885C1H221JA16D/1765211"/>
+    <hyperlink ref="H10" r:id="rId12" display="https://www.digikey.jp/en/products/detail/samsung-electro-mechanics/CL10A475KO8NNNC/3887442"/>
+    <hyperlink ref="H11" r:id="rId13" display="https://www.digikey.jp/en/products/detail/murata-electronics/GCM188R72A103KA37D/1641655?s=N4IgTCBcDaIOIGECyBGAHGgSgdjAQRQAYBmAaT2OwBEQBdAXyA"/>
+    <hyperlink ref="H13" r:id="rId14" display="https://www.digikey.jp/en/products/detail/infineon-technologies/ESD24VS2UE6327HTSA1/1785650"/>
+    <hyperlink ref="H14" r:id="rId15" display="https://www.digikey.jp/en/products/detail/micro-commercial-co/MBR0520-TP/717250"/>
+    <hyperlink ref="H15" r:id="rId16" display="https://www.digikey.jp/en/products/detail/jst-sales-america-inc/B2P-VH/926547"/>
+    <hyperlink ref="H16" r:id="rId17" display="https://www.digikey.jp/en/products/detail/amphenol-cs-commercial-products/G800W304018EU/13682993"/>
+    <hyperlink ref="H17" r:id="rId18" display="https://www.digikey.jp/en/products/detail/bourns-inc/SRP5030CC-3R3M/21263799?s=N4IgTCBcDaIMoCUAKBWADAZjQYWwWgwQwFkQBdAXyA"/>
+    <hyperlink ref="H18" r:id="rId19" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-07470RL/726791?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7ACz5JwAyIAugL5A"/>
+    <hyperlink ref="H19" r:id="rId20" display="https://www.digikey.jp/en/products/detail/panasonic-electronic-components/ERJ-PB6B4703V/6213681?s=N4IgTCBcDaIKICUBSAFAQgNjQFgOwAYBmANRAF0BfIA"/>
+    <hyperlink ref="H20" r:id="rId21" display="https://www.digikey.jp/en/products/detail/rohm-semiconductor/PSR500HTQFB0L10/17140191?s=N4IgTCBcDaIAoGUBKBWADGgEgFQIoDEAhNAGQEY0QBdAXyA"/>
+    <hyperlink ref="H21" r:id="rId22" display="https://www.digikey.jp/en/products/detail/panasonic-electronic-components/ERJ-PB6B1001V/6213377?s=N4IgTCBcDaIKICUBSBaACgIQGwYIwAZ9cA1EAXQF8g"/>
+    <hyperlink ref="H22" r:id="rId23" display="https://www.digikey.jp/en/products/detail/vishay-dale/CRCW06031K00FKEA/1179809"/>
+    <hyperlink ref="H24" r:id="rId24" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-07100RL/726888?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7AIxJJwAyIAugL5A"/>
+    <hyperlink ref="H30" r:id="rId25" display="https://www.digikey.jp/en/products/detail/stackpole-electronics-inc/RMCF0603FT22K1/1760764"/>
+    <hyperlink ref="H31" r:id="rId26" display="https://www.digikey.jp/en/products/detail/stackpole-electronics-inc/RMCF0603FT10K0/1761235?s=N4IgTCBcDaIEoFkDCAxADANjQZhQFQEY0BpNEAXQF8g"/>
+    <hyperlink ref="H32" r:id="rId27" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-07806RL/727397?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7ABypwAyIAugL5A"/>
+    <hyperlink ref="H33" r:id="rId28" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-0751RL/726803?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AKwCMcAMiALoC%2BQA"/>
+    <hyperlink ref="H34" r:id="rId29" display="https://www.digikey.jp/en/products/detail/yageo/RC0603JR-071K2L/726683?s=N4IgTCBcDaIEoGEAMA2JBmAUnAtEg7AIwDSYAMiALoC%2BQA"/>
+    <hyperlink ref="H35" r:id="rId30" display="https://www.digikey.jp/en/products/detail/yageo/RC0603FR-072KL/727009?s=N4IgTCBcDaIEoGEAMA2JBmAYnAtEg7GANIAyIAugL5A"/>
+    <hyperlink ref="H36" r:id="rId31" display="https://www.digikey.jp/en/products/detail/w%C3%BCrth-elektronik/760390015/3831267"/>
+    <hyperlink ref="H37" r:id="rId32" display="https://www.digikey.jp/en/products/detail/pulse-electronics/HM2108NL/7914611"/>
+    <hyperlink ref="H38" r:id="rId33" display="https://www.digikey.jp/en/products/detail/texas-instruments/TPS76350DBVR/382163"/>
+    <hyperlink ref="H39" r:id="rId34" display="https://www.digikey.jp/en/products/detail/texas-instruments/AMC1301DWV/6131500"/>
+    <hyperlink ref="H40" r:id="rId35" display="https://www.digikey.jp/en/products/detail/texas-instruments/SN6501DBVR/3431175?s=N4IgTCBcDaIMoDkBsBWADARgCICEBqASiALoC%2BQA"/>
+    <hyperlink ref="H41" r:id="rId36" display="https://www.digikey.jp/en/products/detail/texas-instruments/OPA2197IDR/6175210?s=N4IgTCBcDaIPIAUCCYCMBOA7ASQCICUQBdAXyA"/>
+    <hyperlink ref="H42" r:id="rId37" display="https://www.digikey.jp/en/products/detail/renesas-electronics-america-inc/ISL28022FUZ-T7A/4765786"/>
+    <hyperlink ref="H43" r:id="rId38" display="https://www.digikey.jp/en/products/detail/texas-instruments/LMR51420XDDCR/16705125?s=N4IgTCBcDaIDIFkBKBWAjAFjABgBoBF8BhJEAXQF8g"/>
+    <hyperlink ref="H44" r:id="rId39" display="https://www.digikey.jp/en/products/detail/espressif-systems/ESP32-DEVKITC-32E/12091810"/>
+    <hyperlink ref="H45" r:id="rId40" display="https://www.digikey.jp/en/products/detail/analog-devices-inc/LTC6820IMS-PBF/3838555?s=N4IgTCBcDaIDIBUDCA2AHGADASQLIGUBiABQCEAxAAhAF0BfIA"/>
+    <hyperlink ref="H46" r:id="rId41" display="https://www.digikey.jp/en/products/detail/texas-instruments/ISO1050DUBR/2094633?s=N4IgTCBcDaIJIGUDyBGADAVjQEQKoCEAlEAXQF8g"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
